--- a/patient_data/patient_15.xlsx
+++ b/patient_data/patient_15.xlsx
@@ -604,19 +604,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -900,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1448,52 +1448,52 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
